--- a/UI1 Miniprojekt Bewertungskriterien (ohne Gewähr).xlsx
+++ b/UI1 Miniprojekt Bewertungskriterien (ohne Gewähr).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24240" windowHeight="11565"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="22650" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -295,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +352,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -425,7 +432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -493,20 +500,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -812,7 +816,7 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -905,7 +909,7 @@
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1083,7 +1087,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3"/>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1230,7 +1234,7 @@
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1287,7 +1291,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3"/>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1408,7 +1412,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3"/>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -1631,7 +1635,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="3"/>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -1650,7 +1654,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="3"/>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -1964,7 +1968,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="11"/>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C67" s="10" t="s">
@@ -1983,7 +1987,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="3"/>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -2002,7 +2006,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="3"/>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="23" t="s">
         <v>68</v>
       </c>
       <c r="C69" s="10" t="s">
@@ -2021,7 +2025,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3"/>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="23" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="10" t="s">
@@ -2142,7 +2146,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="3"/>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -2161,7 +2165,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3"/>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="24" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -2199,7 +2203,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="5"/>
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="25" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -2366,6 +2370,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="198" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
